--- a/biology/Botanique/Björn_Floderus/Björn_Floderus.xlsx
+++ b/biology/Botanique/Björn_Floderus/Björn_Floderus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bj%C3%B6rn_Floderus</t>
+          <t>Björn_Floderus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Björn Gustaf Oscar Floderus (14 août 1867, Uppsala - 12 mai 1941, Stockholm) est un médecin  et botaniste suédois, spécialisé dans le genre  Salix (Saule). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bj%C3%B6rn_Floderus</t>
+          <t>Björn_Floderus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bjorn Floderus est le fils de l'éducateur Manfred Mustafa Floderus (1832-1909)[1].
-À partir de 1885, il étudie la médecine à l'Université d'Uppsala, où, en 1897, il devient chargé de cours de chirurgie[1]. En 1899, il déménage à Stockholm où il exerce comme chef de chirurgie à la clinique « Crown Princess Lovisa », pour les enfants . De 1899 à 1917, il est instructeur adjoint de chirurgie à l'Institut Karolinska[2].
-En tant que botaniste, il se livre à des voyages d'études à Arkhangelsk et en Nouvelle-Zemble (1911), dans l'ouest du Groenland (1921), la rive nord de la péninsule de Kola (1923, 1927 ) ainsi qu'à la réalisation de nombreuses excursions botaniques à travers les pays nordiques. En Norvège, il étudie en profondeur les saules originaires de la côte arctique. Pendant deux de ses voyages, il explore la péninsule de Rybatchi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bjorn Floderus est le fils de l'éducateur Manfred Mustafa Floderus (1832-1909).
+À partir de 1885, il étudie la médecine à l'Université d'Uppsala, où, en 1897, il devient chargé de cours de chirurgie. En 1899, il déménage à Stockholm où il exerce comme chef de chirurgie à la clinique « Crown Princess Lovisa », pour les enfants . De 1899 à 1917, il est instructeur adjoint de chirurgie à l'Institut Karolinska.
+En tant que botaniste, il se livre à des voyages d'études à Arkhangelsk et en Nouvelle-Zemble (1911), dans l'ouest du Groenland (1921), la rive nord de la péninsule de Kola (1923, 1927 ) ainsi qu'à la réalisation de nombreuses excursions botaniques à travers les pays nordiques. En Norvège, il étudie en profondeur les saules originaires de la côte arctique. Pendant deux de ses voyages, il explore la péninsule de Rybatchi.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bj%C3%B6rn_Floderus</t>
+          <t>Björn_Floderus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bidrag jusqu'à kämmedomen om Salix Floran i Torne Lappmark , 1908.
  Studien in der der Biologie Skelettgewebe mit besonderer Berücksichtigung der der Pathogenese Histoiden Gelenkgewebsgeschwülste  1915 – Des études portant sur la biologie des tissus osseux en particulier à la pathogenèse des tumeurs des articulations.
- Salices Om Grönland , 1923[3].
-" Salix Flora of Kamtchatka", Almqvist &amp; Wiksells, 1926[4].
-"Salicaceae Fennoscandicae", Stockholm: P.A. Norstedt, 1931 (avec Otto Rudolf Holmberg)[5].</t>
+ Salices Om Grönland , 1923.
+" Salix Flora of Kamtchatka", Almqvist &amp; Wiksells, 1926.
+"Salicaceae Fennoscandicae", Stockholm: P.A. Norstedt, 1931 (avec Otto Rudolf Holmberg).</t>
         </is>
       </c>
     </row>
